--- a/Data/leftover.xlsx
+++ b/Data/leftover.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,12 +386,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1268521562933612544</t>
+          <t>1268900822399676416</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asli ya, menurutku sendiri dengan adanya covid-19 banyak banget sih pelajaran yg di ambil . Selalu ada hikmah sih di balik musibah</t>
+          <t>Mencoba semangat walau tahu pasien inpartu malam ini ada yang covid ✌ https://t.co/VcFBoaFWRd</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -401,12 +401,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1268843257452212224</t>
+          <t>1254456946612043776</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>di tengah corona lebih baik berkebun #asmat https://t.co/cxM16RmAKm</t>
+          <t>Liat warga disini nanggepin covid-19 seneng dah. Pada tertib pake masker, udah ga ada kumpul2 di warung. Akses masuk aja dijagain, yg masuk di cek, dan ada hand sanitizer. Semoga semua lekas pulih, supaya bisa normal lagi.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -416,12 +416,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1268047341795201025</t>
+          <t>1270285147682664448</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Covid telah merubah tatanan business Penerbangan. Semua kena dampak tanpa kecuali  https://t.co/YHD4uD2mCi</t>
+          <t>Fak!! cek trending twitter ada "tembus 1000" kirain apaan, ternyata pasien covid dalam sehari😭</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -431,12 +431,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1270213747135528961</t>
+          <t>1242381078649655298</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cari kerja susah kali ya kalo lg Pandemic covid gini 🙄</t>
+          <t>Guys, gue tau yg rugi semenjak corona bukan hanya bisnis-bisnisan, tapi juga yang statusnya probation kena cut off apalagi yg tempat kerjanya di bagian hospitality dan f&amp;amp;b kayak gue. 
+Iya, gue salah satu yg baru saja ditelp atasan gue dan di cut off karena pandemi ini.</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -446,12 +447,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1270307877454929920</t>
+          <t>1271615273997492224</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gimana mau new normal ish, kaliannya aja udh pada keluyuran skrng2 nii. New normal juga masih simpang siur seyengg, ini corona tmbh ningkat perharinyaa parahhhh!! tembus 1000 dibilang rekor hadeuhhh😑🙂 https://t.co/xjRumaF2kb</t>
+          <t>Gara gara corona ngga bisa touring lagi.
+ #gunungkidulGGC https://t.co/cSLAcjGqqj</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -461,14 +463,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1268610280591781889</t>
+          <t>1267818118631448579</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mencari uang saat spt ini susah,di tambah lagi ada wabah covid...
-Makin susah aja di indonesia.
-Pribumi sendiri pun susah jk msuk kerja..!!!!</t>
+          <t>Kelamaan korona jadi lupa sama wajah temen banyak yg ketuker🙃</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -478,168 +478,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1244238845358424064</t>
+          <t>1270277895273971714</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>@indrabayuf_ Event gagal gara gara covid</t>
+          <t>ngeri bgt temen smp bokap gue abis reuni gitu ber7 semuanya positif covid terus keluarganya jg kena dari 7 orang jadi 39 orang yang kena</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1255600592556298241</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>pengen warnain rambut tapi kok serem, 
-ada tetangga beda lingkungan kena covid karna abis potong rambut di salon dong😭</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1268536273678917632</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Walaupun Covid sucks ini selesai, pasti akan tetap menimbulkan kekhawatiran dan kegelisahan,yg membuat semua org akan lebih susah buat berinteraksi secara langsung.</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1266348768581967872</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Entah berapa banyak hari libur dan long weekend yang jadi berasa sia-sia gara-gara Corona. Kzl.</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1268510567389474816</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>hiks, rencana nya wisuda nya di hotel berbintang jadi nya gini, fak corona 🖕 https://t.co/n6E3m8AFpz</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1266354554141990912</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>event tiap tahun, tapi gara-gara corona mungkin PRJ gak buka. https://t.co/2E6xGvJvWC</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1233039010500472832</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ya Allah deg deg an banget ini gara gara covid-19, arab saudi jadi block wisatawan termasuk Indonesia, padahal bulan depan uti mau umroh 😣😣 hari ini aja liat berita banyak yg gagal berangkat,bahkan ada yg udah sampe bandara arab suru balik lagi ke Indo 😥😥</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1254603995185741825</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Tapi selama pandemi covid ini juga, banyak orang baik dan memiliki pengertian yang baik yang semakin terlihat ke permukaan.</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1270520046855401473</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>kyaknya tidak bisa mengambil hikmah dari kena covid kemaren ni Menhub , hilang akal sehat nya sudah</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1268455405853700098</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TWITTER PLEASE DO YOUR MAGIC
-Jadi aku punya kaka yang suaminya diphk gara" corona,mereka sekarang cuma ngandelin penghasilan dari jualan lumpia basah karena suaminya kaka ku belum daper kerja lagi sampe sekarang 😭😭
-Aku mau bantu promosiin aja siapa tau ada yang minat 🙏🙏 https://t.co/rt3Pcxb3DE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1270417558718476288</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Emg LDR baru kerasa apalagi pas ada corona #FotoProfilBaru https://t.co/Rk5wHz6zJK</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>-1</v>
       </c>
     </row>
